--- a/data/raw.data/Hairy shore crab.xlsx
+++ b/data/raw.data/Hairy shore crab.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\howardb\Documents\Academic Projects\Shellfish Mesocosms\Phase 1 - Feeding Trials\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\howardb\Documents\Academic Projects\CFRA 2021 - Mesocosms\1_viu.feeding.trials\data\raw.data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="113">
   <si>
     <t>date.run</t>
   </si>
@@ -298,9 +298,6 @@
   </si>
   <si>
     <t>EGC-36</t>
-  </si>
-  <si>
-    <t>pret</t>
   </si>
   <si>
     <t>CW/BH</t>
@@ -688,8 +685,8 @@
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -710,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2280,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
@@ -2323,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
@@ -2366,7 +2363,7 @@
         <v>1.4000000000000004</v>
       </c>
       <c r="M39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
@@ -2409,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
@@ -2452,7 +2449,7 @@
         <v>1.4000000000000004</v>
       </c>
       <c r="M41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
@@ -2460,7 +2457,7 @@
         <v>44512</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
         <v>78</v>
@@ -2495,7 +2492,7 @@
         <v>1.5</v>
       </c>
       <c r="M42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
@@ -2503,7 +2500,7 @@
         <v>44512</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
         <v>78</v>
@@ -2538,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
@@ -2546,16 +2543,16 @@
         <v>44512</v>
       </c>
       <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
         <v>94</v>
-      </c>
-      <c r="C44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44">
-        <v>5</v>
-      </c>
-      <c r="E44" t="s">
-        <v>95</v>
       </c>
       <c r="F44">
         <v>5</v>
@@ -2581,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
@@ -2589,7 +2586,7 @@
         <v>44512</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
         <v>78</v>
@@ -2624,7 +2621,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="M45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
@@ -2632,7 +2629,7 @@
         <v>44512</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
         <v>78</v>
@@ -2667,7 +2664,7 @@
         <v>5.6999999999999993</v>
       </c>
       <c r="M46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
@@ -2675,7 +2672,7 @@
         <v>44518</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
         <v>78</v>
@@ -2684,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F47">
         <v>5</v>
@@ -2710,7 +2707,7 @@
         <v>1.6999999999999993</v>
       </c>
       <c r="M47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
@@ -2718,7 +2715,7 @@
         <v>44518</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
         <v>78</v>
@@ -2727,7 +2724,7 @@
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F48">
         <v>5</v>
@@ -2753,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
@@ -2761,7 +2758,7 @@
         <v>44518</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49" t="s">
         <v>78</v>
@@ -2770,7 +2767,7 @@
         <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F49">
         <v>5</v>
@@ -2796,7 +2793,7 @@
         <v>2</v>
       </c>
       <c r="M49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
@@ -2804,7 +2801,7 @@
         <v>44518</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s">
         <v>78</v>
@@ -2837,7 +2834,7 @@
         <v>22</v>
       </c>
       <c r="M50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
@@ -2845,7 +2842,7 @@
         <v>44518</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C51" t="s">
         <v>78</v>
@@ -2854,7 +2851,7 @@
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F51">
         <v>5</v>
@@ -2880,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
@@ -2888,7 +2885,7 @@
         <v>44513</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" t="s">
         <v>78</v>
@@ -2897,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F52">
         <v>5</v>
@@ -2931,7 +2928,7 @@
         <v>44513</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
         <v>78</v>
@@ -2940,7 +2937,7 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F53">
         <v>5</v>
@@ -2974,7 +2971,7 @@
         <v>44513</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C54" t="s">
         <v>78</v>
@@ -2983,7 +2980,7 @@
         <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F54">
         <v>5</v>
@@ -3017,7 +3014,7 @@
         <v>44513</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C55" t="s">
         <v>78</v>
@@ -3026,7 +3023,7 @@
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F55">
         <v>5</v>
@@ -3060,7 +3057,7 @@
         <v>44513</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C56" t="s">
         <v>78</v>
@@ -3101,7 +3098,7 @@
         <v>44519</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
         <v>78</v>
@@ -3110,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F57">
         <v>5</v>
@@ -3125,14 +3122,14 @@
         <v>5.4</v>
       </c>
       <c r="J57">
-        <f t="shared" ref="J56:J61" si="7">F57-H57</f>
+        <f t="shared" ref="J57:J61" si="7">F57-H57</f>
         <v>2</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
       <c r="L57">
-        <f t="shared" ref="L56:L61" si="8">G57-I57</f>
+        <f t="shared" ref="L57:L61" si="8">G57-I57</f>
         <v>8.7999999999999989</v>
       </c>
       <c r="M57" t="s">
@@ -3144,7 +3141,7 @@
         <v>44519</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C58" t="s">
         <v>78</v>
@@ -3153,7 +3150,7 @@
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F58">
         <v>5</v>
@@ -3187,7 +3184,7 @@
         <v>44519</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C59" t="s">
         <v>78</v>
@@ -3196,7 +3193,7 @@
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F59">
         <v>5</v>
@@ -3230,7 +3227,7 @@
         <v>44519</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s">
         <v>78</v>
@@ -3271,7 +3268,7 @@
         <v>44519</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C61" t="s">
         <v>78</v>
@@ -3280,7 +3277,7 @@
         <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F61">
         <v>5</v>
@@ -9545,7 +9542,7 @@
         <v>40</v>
       </c>
       <c r="K177" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L177" t="s">
         <v>38</v>
@@ -10011,7 +10008,7 @@
         <v>44512</v>
       </c>
       <c r="B191" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C191" t="s">
         <v>78</v>
@@ -10038,7 +10035,7 @@
         <v>34</v>
       </c>
       <c r="L191" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.35">
@@ -10046,7 +10043,7 @@
         <v>44512</v>
       </c>
       <c r="B192" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C192" t="s">
         <v>78</v>
@@ -10073,7 +10070,7 @@
         <v>34</v>
       </c>
       <c r="L192" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.35">
@@ -10081,7 +10078,7 @@
         <v>44512</v>
       </c>
       <c r="B193" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C193" t="s">
         <v>78</v>
@@ -10108,7 +10105,7 @@
         <v>34</v>
       </c>
       <c r="L193" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.35">
@@ -10116,7 +10113,7 @@
         <v>44512</v>
       </c>
       <c r="B194" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C194" t="s">
         <v>78</v>
@@ -10143,7 +10140,7 @@
         <v>34</v>
       </c>
       <c r="L194" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.35">
@@ -10151,7 +10148,7 @@
         <v>44512</v>
       </c>
       <c r="B195" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C195" t="s">
         <v>78</v>
@@ -10178,7 +10175,7 @@
         <v>34</v>
       </c>
       <c r="L195" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.35">
@@ -10186,7 +10183,7 @@
         <v>44512</v>
       </c>
       <c r="B196" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C196" t="s">
         <v>78</v>
@@ -10213,7 +10210,7 @@
         <v>34</v>
       </c>
       <c r="L196" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.35">
@@ -10221,7 +10218,7 @@
         <v>44512</v>
       </c>
       <c r="B197" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C197" t="s">
         <v>78</v>
@@ -10248,7 +10245,7 @@
         <v>34</v>
       </c>
       <c r="L197" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.35">
@@ -10256,7 +10253,7 @@
         <v>44512</v>
       </c>
       <c r="B198" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C198" t="s">
         <v>78</v>
@@ -10283,7 +10280,7 @@
         <v>34</v>
       </c>
       <c r="L198" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.35">
@@ -10291,7 +10288,7 @@
         <v>44512</v>
       </c>
       <c r="B199" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C199" t="s">
         <v>78</v>
@@ -10318,7 +10315,7 @@
         <v>34</v>
       </c>
       <c r="L199" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.35">
@@ -10326,7 +10323,7 @@
         <v>44512</v>
       </c>
       <c r="B200" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C200" t="s">
         <v>78</v>
@@ -10353,7 +10350,7 @@
         <v>34</v>
       </c>
       <c r="L200" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.35">
@@ -10361,16 +10358,16 @@
         <v>44512</v>
       </c>
       <c r="B201" t="s">
+        <v>93</v>
+      </c>
+      <c r="C201" t="s">
+        <v>78</v>
+      </c>
+      <c r="D201">
+        <v>5</v>
+      </c>
+      <c r="E201" t="s">
         <v>94</v>
-      </c>
-      <c r="C201" t="s">
-        <v>78</v>
-      </c>
-      <c r="D201">
-        <v>5</v>
-      </c>
-      <c r="E201" t="s">
-        <v>95</v>
       </c>
       <c r="F201">
         <v>19</v>
@@ -10388,7 +10385,7 @@
         <v>34</v>
       </c>
       <c r="L201" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.35">
@@ -10396,16 +10393,16 @@
         <v>44512</v>
       </c>
       <c r="B202" t="s">
+        <v>93</v>
+      </c>
+      <c r="C202" t="s">
+        <v>78</v>
+      </c>
+      <c r="D202">
+        <v>5</v>
+      </c>
+      <c r="E202" t="s">
         <v>94</v>
-      </c>
-      <c r="C202" t="s">
-        <v>78</v>
-      </c>
-      <c r="D202">
-        <v>5</v>
-      </c>
-      <c r="E202" t="s">
-        <v>95</v>
       </c>
       <c r="F202">
         <v>19</v>
@@ -10423,7 +10420,7 @@
         <v>34</v>
       </c>
       <c r="L202" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.35">
@@ -10431,16 +10428,16 @@
         <v>44512</v>
       </c>
       <c r="B203" t="s">
+        <v>93</v>
+      </c>
+      <c r="C203" t="s">
+        <v>78</v>
+      </c>
+      <c r="D203">
+        <v>5</v>
+      </c>
+      <c r="E203" t="s">
         <v>94</v>
-      </c>
-      <c r="C203" t="s">
-        <v>78</v>
-      </c>
-      <c r="D203">
-        <v>5</v>
-      </c>
-      <c r="E203" t="s">
-        <v>95</v>
       </c>
       <c r="F203">
         <v>15</v>
@@ -10458,7 +10455,7 @@
         <v>34</v>
       </c>
       <c r="L203" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.35">
@@ -10466,16 +10463,16 @@
         <v>44512</v>
       </c>
       <c r="B204" t="s">
+        <v>93</v>
+      </c>
+      <c r="C204" t="s">
+        <v>78</v>
+      </c>
+      <c r="D204">
+        <v>5</v>
+      </c>
+      <c r="E204" t="s">
         <v>94</v>
-      </c>
-      <c r="C204" t="s">
-        <v>78</v>
-      </c>
-      <c r="D204">
-        <v>5</v>
-      </c>
-      <c r="E204" t="s">
-        <v>95</v>
       </c>
       <c r="F204">
         <v>15</v>
@@ -10493,7 +10490,7 @@
         <v>34</v>
       </c>
       <c r="L204" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.35">
@@ -10501,16 +10498,16 @@
         <v>44512</v>
       </c>
       <c r="B205" t="s">
+        <v>93</v>
+      </c>
+      <c r="C205" t="s">
+        <v>78</v>
+      </c>
+      <c r="D205">
+        <v>5</v>
+      </c>
+      <c r="E205" t="s">
         <v>94</v>
-      </c>
-      <c r="C205" t="s">
-        <v>78</v>
-      </c>
-      <c r="D205">
-        <v>5</v>
-      </c>
-      <c r="E205" t="s">
-        <v>95</v>
       </c>
       <c r="F205">
         <v>16</v>
@@ -10528,7 +10525,7 @@
         <v>34</v>
       </c>
       <c r="L205" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.35">
@@ -10536,7 +10533,7 @@
         <v>44512</v>
       </c>
       <c r="B206" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C206" t="s">
         <v>78</v>
@@ -10563,7 +10560,7 @@
         <v>34</v>
       </c>
       <c r="L206" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.35">
@@ -10571,7 +10568,7 @@
         <v>44512</v>
       </c>
       <c r="B207" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C207" t="s">
         <v>78</v>
@@ -10598,7 +10595,7 @@
         <v>34</v>
       </c>
       <c r="L207" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.35">
@@ -10606,7 +10603,7 @@
         <v>44512</v>
       </c>
       <c r="B208" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C208" t="s">
         <v>78</v>
@@ -10633,7 +10630,7 @@
         <v>34</v>
       </c>
       <c r="L208" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.35">
@@ -10641,7 +10638,7 @@
         <v>44512</v>
       </c>
       <c r="B209" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C209" t="s">
         <v>78</v>
@@ -10668,7 +10665,7 @@
         <v>34</v>
       </c>
       <c r="L209" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.35">
@@ -10676,7 +10673,7 @@
         <v>44512</v>
       </c>
       <c r="B210" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C210" t="s">
         <v>78</v>
@@ -10703,7 +10700,7 @@
         <v>34</v>
       </c>
       <c r="L210" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.35">
@@ -10711,7 +10708,7 @@
         <v>44512</v>
       </c>
       <c r="B211" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C211" t="s">
         <v>78</v>
@@ -10738,7 +10735,7 @@
         <v>34</v>
       </c>
       <c r="L211" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.35">
@@ -10746,7 +10743,7 @@
         <v>44512</v>
       </c>
       <c r="B212" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C212" t="s">
         <v>78</v>
@@ -10773,7 +10770,7 @@
         <v>34</v>
       </c>
       <c r="L212" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.35">
@@ -10781,7 +10778,7 @@
         <v>44512</v>
       </c>
       <c r="B213" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C213" t="s">
         <v>78</v>
@@ -10808,7 +10805,7 @@
         <v>34</v>
       </c>
       <c r="L213" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.35">
@@ -10816,7 +10813,7 @@
         <v>44512</v>
       </c>
       <c r="B214" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C214" t="s">
         <v>78</v>
@@ -10843,7 +10840,7 @@
         <v>34</v>
       </c>
       <c r="L214" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.35">
@@ -10851,7 +10848,7 @@
         <v>44512</v>
       </c>
       <c r="B215" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C215" t="s">
         <v>78</v>
@@ -10878,7 +10875,7 @@
         <v>34</v>
       </c>
       <c r="L215" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.35">
@@ -10886,7 +10883,7 @@
         <v>44518</v>
       </c>
       <c r="B216" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C216" t="s">
         <v>78</v>
@@ -10895,7 +10892,7 @@
         <v>1</v>
       </c>
       <c r="E216" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F216">
         <v>20</v>
@@ -10921,7 +10918,7 @@
         <v>44518</v>
       </c>
       <c r="B217" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C217" t="s">
         <v>78</v>
@@ -10930,7 +10927,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F217">
         <v>15</v>
@@ -10956,7 +10953,7 @@
         <v>44518</v>
       </c>
       <c r="B218" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C218" t="s">
         <v>78</v>
@@ -10965,7 +10962,7 @@
         <v>1</v>
       </c>
       <c r="E218" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F218">
         <v>16</v>
@@ -10991,7 +10988,7 @@
         <v>44518</v>
       </c>
       <c r="B219" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C219" t="s">
         <v>78</v>
@@ -11000,7 +10997,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F219">
         <v>20</v>
@@ -11026,7 +11023,7 @@
         <v>44518</v>
       </c>
       <c r="B220" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C220" t="s">
         <v>78</v>
@@ -11035,7 +11032,7 @@
         <v>1</v>
       </c>
       <c r="E220" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F220">
         <v>16</v>
@@ -11061,7 +11058,7 @@
         <v>44518</v>
       </c>
       <c r="B221" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C221" t="s">
         <v>78</v>
@@ -11070,7 +11067,7 @@
         <v>3</v>
       </c>
       <c r="E221" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F221">
         <v>17</v>
@@ -11096,7 +11093,7 @@
         <v>44518</v>
       </c>
       <c r="B222" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C222" t="s">
         <v>78</v>
@@ -11105,7 +11102,7 @@
         <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F222">
         <v>19</v>
@@ -11131,7 +11128,7 @@
         <v>44518</v>
       </c>
       <c r="B223" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C223" t="s">
         <v>78</v>
@@ -11140,7 +11137,7 @@
         <v>3</v>
       </c>
       <c r="E223" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F223">
         <v>18</v>
@@ -11166,7 +11163,7 @@
         <v>44518</v>
       </c>
       <c r="B224" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C224" t="s">
         <v>78</v>
@@ -11175,7 +11172,7 @@
         <v>3</v>
       </c>
       <c r="E224" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F224">
         <v>14</v>
@@ -11201,7 +11198,7 @@
         <v>44518</v>
       </c>
       <c r="B225" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C225" t="s">
         <v>78</v>
@@ -11210,7 +11207,7 @@
         <v>3</v>
       </c>
       <c r="E225" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F225">
         <v>15</v>
@@ -11236,7 +11233,7 @@
         <v>44518</v>
       </c>
       <c r="B226" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C226" t="s">
         <v>78</v>
@@ -11245,7 +11242,7 @@
         <v>5</v>
       </c>
       <c r="E226" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F226">
         <v>19</v>
@@ -11271,7 +11268,7 @@
         <v>44518</v>
       </c>
       <c r="B227" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C227" t="s">
         <v>78</v>
@@ -11280,7 +11277,7 @@
         <v>5</v>
       </c>
       <c r="E227" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F227">
         <v>17</v>
@@ -11306,7 +11303,7 @@
         <v>44518</v>
       </c>
       <c r="B228" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C228" t="s">
         <v>78</v>
@@ -11315,7 +11312,7 @@
         <v>5</v>
       </c>
       <c r="E228" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F228">
         <v>20</v>
@@ -11341,7 +11338,7 @@
         <v>44518</v>
       </c>
       <c r="B229" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C229" t="s">
         <v>78</v>
@@ -11350,7 +11347,7 @@
         <v>5</v>
       </c>
       <c r="E229" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F229">
         <v>13</v>
@@ -11376,7 +11373,7 @@
         <v>44518</v>
       </c>
       <c r="B230" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C230" t="s">
         <v>78</v>
@@ -11385,7 +11382,7 @@
         <v>5</v>
       </c>
       <c r="E230" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F230">
         <v>16</v>
@@ -11411,7 +11408,7 @@
         <v>44518</v>
       </c>
       <c r="B231" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C231" t="s">
         <v>78</v>
@@ -11446,7 +11443,7 @@
         <v>44518</v>
       </c>
       <c r="B232" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C232" t="s">
         <v>78</v>
@@ -11455,7 +11452,7 @@
         <v>9</v>
       </c>
       <c r="E232" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F232">
         <v>21</v>
@@ -11481,7 +11478,7 @@
         <v>44518</v>
       </c>
       <c r="B233" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C233" t="s">
         <v>78</v>
@@ -11490,7 +11487,7 @@
         <v>9</v>
       </c>
       <c r="E233" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F233">
         <v>16</v>
@@ -11516,7 +11513,7 @@
         <v>44518</v>
       </c>
       <c r="B234" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C234" t="s">
         <v>78</v>
@@ -11525,7 +11522,7 @@
         <v>9</v>
       </c>
       <c r="E234" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F234">
         <v>18</v>
@@ -11551,7 +11548,7 @@
         <v>44518</v>
       </c>
       <c r="B235" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C235" t="s">
         <v>78</v>
@@ -11560,7 +11557,7 @@
         <v>9</v>
       </c>
       <c r="E235" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F235">
         <v>17</v>
@@ -11586,7 +11583,7 @@
         <v>44518</v>
       </c>
       <c r="B236" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C236" t="s">
         <v>78</v>
@@ -11595,7 +11592,7 @@
         <v>9</v>
       </c>
       <c r="E236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F236">
         <v>17</v>
@@ -11621,7 +11618,7 @@
         <v>44513</v>
       </c>
       <c r="B237" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C237" t="s">
         <v>78</v>
@@ -11630,7 +11627,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F237">
         <v>15</v>
@@ -11648,7 +11645,7 @@
         <v>24</v>
       </c>
       <c r="L237" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.35">
@@ -11656,7 +11653,7 @@
         <v>44513</v>
       </c>
       <c r="B238" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C238" t="s">
         <v>78</v>
@@ -11665,7 +11662,7 @@
         <v>1</v>
       </c>
       <c r="E238" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F238">
         <v>15</v>
@@ -11683,7 +11680,7 @@
         <v>24</v>
       </c>
       <c r="L238" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.35">
@@ -11691,7 +11688,7 @@
         <v>44513</v>
       </c>
       <c r="B239" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C239" t="s">
         <v>78</v>
@@ -11700,7 +11697,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F239">
         <v>18</v>
@@ -11718,7 +11715,7 @@
         <v>24</v>
       </c>
       <c r="L239" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.35">
@@ -11726,7 +11723,7 @@
         <v>44513</v>
       </c>
       <c r="B240" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C240" t="s">
         <v>78</v>
@@ -11735,7 +11732,7 @@
         <v>1</v>
       </c>
       <c r="E240" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F240">
         <v>12</v>
@@ -11753,7 +11750,7 @@
         <v>24</v>
       </c>
       <c r="L240" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.35">
@@ -11761,7 +11758,7 @@
         <v>44513</v>
       </c>
       <c r="B241" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C241" t="s">
         <v>78</v>
@@ -11770,7 +11767,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F241">
         <v>17</v>
@@ -11788,7 +11785,7 @@
         <v>24</v>
       </c>
       <c r="L241" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.35">
@@ -11796,7 +11793,7 @@
         <v>44513</v>
       </c>
       <c r="B242" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C242" t="s">
         <v>78</v>
@@ -11805,7 +11802,7 @@
         <v>3</v>
       </c>
       <c r="E242" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F242">
         <v>20</v>
@@ -11823,7 +11820,7 @@
         <v>24</v>
       </c>
       <c r="L242" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.35">
@@ -11831,7 +11828,7 @@
         <v>44513</v>
       </c>
       <c r="B243" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C243" t="s">
         <v>78</v>
@@ -11840,7 +11837,7 @@
         <v>3</v>
       </c>
       <c r="E243" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F243">
         <v>17</v>
@@ -11858,7 +11855,7 @@
         <v>24</v>
       </c>
       <c r="L243" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.35">
@@ -11866,7 +11863,7 @@
         <v>44513</v>
       </c>
       <c r="B244" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C244" t="s">
         <v>78</v>
@@ -11875,7 +11872,7 @@
         <v>3</v>
       </c>
       <c r="E244" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F244">
         <v>13</v>
@@ -11893,7 +11890,7 @@
         <v>24</v>
       </c>
       <c r="L244" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.35">
@@ -11901,7 +11898,7 @@
         <v>44513</v>
       </c>
       <c r="B245" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C245" t="s">
         <v>78</v>
@@ -11910,7 +11907,7 @@
         <v>3</v>
       </c>
       <c r="E245" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F245">
         <v>14</v>
@@ -11928,7 +11925,7 @@
         <v>24</v>
       </c>
       <c r="L245" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.35">
@@ -11936,7 +11933,7 @@
         <v>44513</v>
       </c>
       <c r="B246" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C246" t="s">
         <v>78</v>
@@ -11945,7 +11942,7 @@
         <v>3</v>
       </c>
       <c r="E246" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F246">
         <v>15</v>
@@ -11963,7 +11960,7 @@
         <v>24</v>
       </c>
       <c r="L246" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.35">
@@ -11971,7 +11968,7 @@
         <v>44513</v>
       </c>
       <c r="B247" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C247" t="s">
         <v>78</v>
@@ -11980,7 +11977,7 @@
         <v>5</v>
       </c>
       <c r="E247" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F247">
         <v>21</v>
@@ -11998,7 +11995,7 @@
         <v>24</v>
       </c>
       <c r="L247" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.35">
@@ -12006,7 +12003,7 @@
         <v>44513</v>
       </c>
       <c r="B248" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C248" t="s">
         <v>78</v>
@@ -12015,7 +12012,7 @@
         <v>5</v>
       </c>
       <c r="E248" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F248">
         <v>14</v>
@@ -12033,7 +12030,7 @@
         <v>24</v>
       </c>
       <c r="L248" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.35">
@@ -12041,7 +12038,7 @@
         <v>44513</v>
       </c>
       <c r="B249" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C249" t="s">
         <v>78</v>
@@ -12050,7 +12047,7 @@
         <v>5</v>
       </c>
       <c r="E249" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F249">
         <v>14</v>
@@ -12068,7 +12065,7 @@
         <v>24</v>
       </c>
       <c r="L249" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.35">
@@ -12076,7 +12073,7 @@
         <v>44513</v>
       </c>
       <c r="B250" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C250" t="s">
         <v>78</v>
@@ -12085,7 +12082,7 @@
         <v>5</v>
       </c>
       <c r="E250" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F250">
         <v>13</v>
@@ -12103,7 +12100,7 @@
         <v>24</v>
       </c>
       <c r="L250" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.35">
@@ -12111,7 +12108,7 @@
         <v>44513</v>
       </c>
       <c r="B251" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C251" t="s">
         <v>78</v>
@@ -12120,7 +12117,7 @@
         <v>5</v>
       </c>
       <c r="E251" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F251">
         <v>15</v>
@@ -12138,7 +12135,7 @@
         <v>24</v>
       </c>
       <c r="L251" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.35">
@@ -12146,7 +12143,7 @@
         <v>44513</v>
       </c>
       <c r="B252" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C252" t="s">
         <v>78</v>
@@ -12155,7 +12152,7 @@
         <v>7</v>
       </c>
       <c r="E252" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F252">
         <v>14</v>
@@ -12173,7 +12170,7 @@
         <v>24</v>
       </c>
       <c r="L252" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.35">
@@ -12181,7 +12178,7 @@
         <v>44513</v>
       </c>
       <c r="B253" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C253" t="s">
         <v>78</v>
@@ -12190,7 +12187,7 @@
         <v>7</v>
       </c>
       <c r="E253" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F253">
         <v>21</v>
@@ -12208,7 +12205,7 @@
         <v>24</v>
       </c>
       <c r="L253" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.35">
@@ -12216,7 +12213,7 @@
         <v>44513</v>
       </c>
       <c r="B254" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C254" t="s">
         <v>78</v>
@@ -12225,7 +12222,7 @@
         <v>7</v>
       </c>
       <c r="E254" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F254">
         <v>15</v>
@@ -12243,7 +12240,7 @@
         <v>24</v>
       </c>
       <c r="L254" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.35">
@@ -12251,7 +12248,7 @@
         <v>44513</v>
       </c>
       <c r="B255" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C255" t="s">
         <v>78</v>
@@ -12260,7 +12257,7 @@
         <v>7</v>
       </c>
       <c r="E255" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F255">
         <v>17</v>
@@ -12278,7 +12275,7 @@
         <v>24</v>
       </c>
       <c r="L255" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.35">
@@ -12286,7 +12283,7 @@
         <v>44513</v>
       </c>
       <c r="B256" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C256" t="s">
         <v>78</v>
@@ -12295,7 +12292,7 @@
         <v>7</v>
       </c>
       <c r="E256" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F256">
         <v>13</v>
@@ -12313,7 +12310,7 @@
         <v>24</v>
       </c>
       <c r="L256" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.35">
@@ -12321,7 +12318,7 @@
         <v>44513</v>
       </c>
       <c r="B257" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C257" t="s">
         <v>78</v>
@@ -12356,7 +12353,7 @@
         <v>44519</v>
       </c>
       <c r="B258" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C258" t="s">
         <v>78</v>
@@ -12365,7 +12362,7 @@
         <v>1</v>
       </c>
       <c r="E258" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F258">
         <v>21</v>
@@ -12391,7 +12388,7 @@
         <v>44519</v>
       </c>
       <c r="B259" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C259" t="s">
         <v>78</v>
@@ -12400,7 +12397,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F259">
         <v>13</v>
@@ -12426,7 +12423,7 @@
         <v>44519</v>
       </c>
       <c r="B260" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C260" t="s">
         <v>78</v>
@@ -12435,7 +12432,7 @@
         <v>1</v>
       </c>
       <c r="E260" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F260">
         <v>18</v>
@@ -12461,7 +12458,7 @@
         <v>44519</v>
       </c>
       <c r="B261" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C261" t="s">
         <v>78</v>
@@ -12470,7 +12467,7 @@
         <v>1</v>
       </c>
       <c r="E261" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F261">
         <v>15</v>
@@ -12496,7 +12493,7 @@
         <v>44519</v>
       </c>
       <c r="B262" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C262" t="s">
         <v>78</v>
@@ -12505,7 +12502,7 @@
         <v>1</v>
       </c>
       <c r="E262" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F262">
         <v>20</v>
@@ -12531,7 +12528,7 @@
         <v>44519</v>
       </c>
       <c r="B263" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C263" t="s">
         <v>78</v>
@@ -12540,7 +12537,7 @@
         <v>3</v>
       </c>
       <c r="E263" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F263">
         <v>13</v>
@@ -12566,7 +12563,7 @@
         <v>44519</v>
       </c>
       <c r="B264" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C264" t="s">
         <v>78</v>
@@ -12575,7 +12572,7 @@
         <v>3</v>
       </c>
       <c r="E264" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F264">
         <v>17</v>
@@ -12601,7 +12598,7 @@
         <v>44519</v>
       </c>
       <c r="B265" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C265" t="s">
         <v>78</v>
@@ -12610,7 +12607,7 @@
         <v>3</v>
       </c>
       <c r="E265" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F265">
         <v>21</v>
@@ -12636,7 +12633,7 @@
         <v>44519</v>
       </c>
       <c r="B266" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C266" t="s">
         <v>78</v>
@@ -12645,7 +12642,7 @@
         <v>3</v>
       </c>
       <c r="E266" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F266">
         <v>12</v>
@@ -12671,7 +12668,7 @@
         <v>44519</v>
       </c>
       <c r="B267" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C267" t="s">
         <v>78</v>
@@ -12680,7 +12677,7 @@
         <v>3</v>
       </c>
       <c r="E267" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F267">
         <v>18</v>
@@ -12706,7 +12703,7 @@
         <v>44519</v>
       </c>
       <c r="B268" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C268" t="s">
         <v>78</v>
@@ -12715,7 +12712,7 @@
         <v>5</v>
       </c>
       <c r="E268" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F268">
         <v>15</v>
@@ -12741,7 +12738,7 @@
         <v>44519</v>
       </c>
       <c r="B269" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C269" t="s">
         <v>78</v>
@@ -12750,7 +12747,7 @@
         <v>5</v>
       </c>
       <c r="E269" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F269">
         <v>20</v>
@@ -12776,7 +12773,7 @@
         <v>44519</v>
       </c>
       <c r="B270" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C270" t="s">
         <v>78</v>
@@ -12785,7 +12782,7 @@
         <v>5</v>
       </c>
       <c r="E270" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F270">
         <v>16</v>
@@ -12811,7 +12808,7 @@
         <v>44519</v>
       </c>
       <c r="B271" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C271" t="s">
         <v>78</v>
@@ -12820,7 +12817,7 @@
         <v>5</v>
       </c>
       <c r="E271" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F271">
         <v>13</v>
@@ -12846,7 +12843,7 @@
         <v>44519</v>
       </c>
       <c r="B272" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C272" t="s">
         <v>78</v>
@@ -12855,7 +12852,7 @@
         <v>5</v>
       </c>
       <c r="E272" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F272">
         <v>18</v>
@@ -12881,7 +12878,7 @@
         <v>44519</v>
       </c>
       <c r="B273" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C273" t="s">
         <v>78</v>
@@ -12916,7 +12913,7 @@
         <v>44519</v>
       </c>
       <c r="B274" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C274" t="s">
         <v>78</v>
@@ -12925,7 +12922,7 @@
         <v>9</v>
       </c>
       <c r="E274" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F274">
         <v>13</v>
@@ -12951,7 +12948,7 @@
         <v>44519</v>
       </c>
       <c r="B275" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C275" t="s">
         <v>78</v>
@@ -12960,7 +12957,7 @@
         <v>9</v>
       </c>
       <c r="E275" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F275">
         <v>20</v>
@@ -12986,7 +12983,7 @@
         <v>44519</v>
       </c>
       <c r="B276" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C276" t="s">
         <v>78</v>
@@ -12995,7 +12992,7 @@
         <v>9</v>
       </c>
       <c r="E276" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F276">
         <v>19</v>
@@ -13021,7 +13018,7 @@
         <v>44519</v>
       </c>
       <c r="B277" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C277" t="s">
         <v>78</v>
@@ -13030,7 +13027,7 @@
         <v>9</v>
       </c>
       <c r="E277" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F277">
         <v>16</v>
@@ -13056,7 +13053,7 @@
         <v>44519</v>
       </c>
       <c r="B278" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C278" t="s">
         <v>78</v>
@@ -13065,7 +13062,7 @@
         <v>9</v>
       </c>
       <c r="E278" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F278">
         <v>16</v>
